--- a/Excel100项/03Excel合并筛选计算.xlsx
+++ b/Excel100项/03Excel合并筛选计算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="28125" windowHeight="14340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="首屏" sheetId="4" r:id="rId1"/>
@@ -1955,9 +1955,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1982,7 +1982,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,17 +2017,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2017,8 +2080,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2032,79 +2103,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2117,9 +2118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2176,19 +2176,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2206,120 +2230,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2332,7 +2242,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,7 +2338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,11 +2382,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2406,42 +2412,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2462,11 +2445,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2487,10 +2487,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2499,133 +2499,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2860,10 +2860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>902</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>753</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,10 +2925,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>753</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,7 +5522,7 @@
   <sheetPr/>
   <dimension ref="B2:BK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8552,7 +8552,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -8561,7 +8561,7 @@
     <col min="2" max="4" width="8.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="1.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="7" max="16382" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
@@ -9041,7 +9041,7 @@
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="B11:F43">
+  <sortState ref="B11:G43">
     <sortCondition ref="B11:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9116,11 +9116,11 @@
       </c>
       <c r="C12" s="12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11">
         <f ca="1" t="shared" ref="D12:D44" si="0">IF(C12&gt;=60,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="C13" s="12">
         <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9142,7 +9142,7 @@
       </c>
       <c r="C14" s="12">
         <f ca="1" t="shared" ref="C13:C22" si="1">RANDBETWEEN(1,100)</f>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9155,7 +9155,7 @@
       </c>
       <c r="C15" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D15" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9168,11 +9168,11 @@
       </c>
       <c r="C16" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D16" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="C17" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D17" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9194,7 +9194,7 @@
       </c>
       <c r="C18" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D18" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="C19" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D19" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9220,11 +9220,11 @@
       </c>
       <c r="C20" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D20" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="C21" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D21" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="C22" s="12">
         <f ca="1" t="shared" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9259,11 +9259,11 @@
       </c>
       <c r="C23" s="12">
         <f ca="1" t="shared" ref="C23:C32" si="2">RANDBETWEEN(1,100)</f>
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D23" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -9272,11 +9272,11 @@
       </c>
       <c r="C24" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D24" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="C25" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D25" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C26" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D26" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9311,11 +9311,11 @@
       </c>
       <c r="C27" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D27" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -9324,11 +9324,11 @@
       </c>
       <c r="C28" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="D28" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="C29" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9350,11 +9350,11 @@
       </c>
       <c r="C30" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D30" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -9363,11 +9363,11 @@
       </c>
       <c r="C31" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="C32" s="12">
         <f ca="1" t="shared" si="2"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9389,11 +9389,11 @@
       </c>
       <c r="C33" s="12">
         <f ca="1" t="shared" ref="C33:C44" si="3">RANDBETWEEN(1,100)</f>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D33" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -9402,7 +9402,7 @@
       </c>
       <c r="C34" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D34" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9415,11 +9415,11 @@
       </c>
       <c r="C35" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D35" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -9428,11 +9428,11 @@
       </c>
       <c r="C36" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D36" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C37" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D37" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="C38" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="C39" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D39" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="C40" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D40" s="11">
         <f ca="1" t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="C41" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D41" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9506,7 +9506,7 @@
       </c>
       <c r="C42" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D42" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="C43" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="C44" s="12">
         <f ca="1" t="shared" si="3"/>
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D44" s="11">
         <f ca="1" t="shared" si="0"/>
@@ -9554,11 +9554,11 @@
       </c>
       <c r="G46" s="13">
         <f ca="1">COUNTIF(D12:D44,"=1")</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H46" s="13">
         <f ca="1">SUMIF(D12:D44,"=1",C12:C44)</f>
-        <v>902</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="47" spans="6:8">
@@ -9567,11 +9567,11 @@
       </c>
       <c r="G47" s="14">
         <f ca="1">COUNTIF(D12:D44,"=0")</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H47" s="14">
         <f ca="1">SUMIF(D12:D44,"=0",C12:C44)</f>
-        <v>753</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" s="8" customFormat="1" ht="35.25" spans="2:2">
@@ -9600,7 +9600,7 @@
   <sheetPr/>
   <dimension ref="A1:M575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9645,6 +9645,7 @@
     <row r="7" s="3" customFormat="1" ht="14.25"/>
     <row r="8" s="1" customFormat="1" ht="14.25"/>
     <row r="9" s="3" customFormat="1" ht="14.25"/>
+    <row r="10" ht="14.25"/>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>74</v>
@@ -9667,22 +9668,22 @@
       </c>
       <c r="H12">
         <f ca="1">RANDBETWEEN(1,564)</f>
-        <v>21</v>
+        <v>522</v>
       </c>
       <c r="I12">
         <f ca="1">RANDBETWEEN(1,56)</f>
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
         <v>77</v>
       </c>
       <c r="L12" t="str">
         <f ca="1">VLOOKUP(H12,A:B,2,FALSE)</f>
-        <v>何</v>
+        <v>延</v>
       </c>
       <c r="M12" s="6" t="str">
         <f ca="1">VLOOKUP(I12,C:D,2,FALSE)</f>
-        <v>崇鹏</v>
+        <v>柔汐</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9702,22 +9703,22 @@
       </c>
       <c r="H13">
         <f ca="1" t="shared" ref="H13:H22" si="2">RANDBETWEEN(1,564)</f>
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="I13">
         <f ca="1" t="shared" ref="I13:I22" si="3">RANDBETWEEN(1,56)</f>
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
         <v>77</v>
       </c>
       <c r="L13" t="str">
         <f ca="1">VLOOKUP(H13,A:B,2,FALSE)</f>
-        <v>童</v>
-      </c>
-      <c r="M13" s="6" t="str">
+        <v>羊</v>
+      </c>
+      <c r="M13" s="6" t="e">
         <f ca="1" t="shared" ref="M13:M44" si="4">VLOOKUP(I13,C:D,2,FALSE)</f>
-        <v>镕华</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -9737,22 +9738,22 @@
       </c>
       <c r="H14">
         <f ca="1" t="shared" si="2"/>
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="I14">
         <f ca="1" t="shared" si="3"/>
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
         <v>77</v>
       </c>
       <c r="L14" t="str">
         <f ca="1" t="shared" ref="L14:L44" si="5">VLOOKUP(H14,A:B,2,FALSE)</f>
-        <v>冶</v>
-      </c>
-      <c r="M14" s="6" t="str">
+        <v>别</v>
+      </c>
+      <c r="M14" s="6" t="e">
         <f ca="1" t="shared" si="4"/>
-        <v>柔汐</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9772,22 +9773,22 @@
       </c>
       <c r="H15">
         <f ca="1" t="shared" si="2"/>
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="I15">
         <f ca="1" t="shared" si="3"/>
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
         <v>77</v>
       </c>
       <c r="L15" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>寇</v>
+        <v>瞿</v>
       </c>
       <c r="M15" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>金甫</v>
+        <v>睿洋</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -9807,22 +9808,22 @@
       </c>
       <c r="H16">
         <f ca="1" t="shared" si="2"/>
-        <v>505</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <f ca="1" t="shared" si="3"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
         <v>77</v>
       </c>
       <c r="L16" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>晋</v>
+        <v>卜</v>
       </c>
       <c r="M16" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>铸宏</v>
+        <v>金甫</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9842,22 +9843,22 @@
       </c>
       <c r="H17">
         <f ca="1" t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17">
         <f ca="1" t="shared" si="3"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K17" t="s">
         <v>77</v>
       </c>
       <c r="L17" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>吕</v>
+        <v>杨</v>
       </c>
       <c r="M17" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>世白</v>
+        <v>成汐</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -9877,22 +9878,22 @@
       </c>
       <c r="H18">
         <f ca="1" t="shared" si="2"/>
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="I18">
         <f ca="1" t="shared" si="3"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
         <v>77</v>
       </c>
       <c r="L18" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>余</v>
+        <v>钦</v>
       </c>
       <c r="M18" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>镕彪</v>
+        <v>镜香</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -9912,22 +9913,22 @@
       </c>
       <c r="H19">
         <f ca="1" t="shared" si="2"/>
-        <v>98</v>
+        <v>451</v>
       </c>
       <c r="I19">
         <f ca="1">RANDBETWEEN(1,55)</f>
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>77</v>
       </c>
       <c r="L19" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>穆</v>
+        <v>仲</v>
       </c>
       <c r="M19" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>宣含</v>
+        <v>成汐</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -9947,22 +9948,22 @@
       </c>
       <c r="H20">
         <f ca="1" t="shared" si="2"/>
-        <v>424</v>
+        <v>131</v>
       </c>
       <c r="I20">
         <f ca="1" t="shared" si="3"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
         <v>77</v>
       </c>
       <c r="L20" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>方</v>
+        <v>蓝</v>
       </c>
       <c r="M20" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>宸清</v>
+        <v>宗好</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -9982,22 +9983,22 @@
       </c>
       <c r="H21">
         <f ca="1" t="shared" si="2"/>
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="I21">
         <f ca="1" t="shared" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K21" t="s">
         <v>77</v>
       </c>
       <c r="L21" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>人</v>
-      </c>
-      <c r="M21" s="6" t="e">
+        <v>冉</v>
+      </c>
+      <c r="M21" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>镕彪</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -10017,22 +10018,22 @@
       </c>
       <c r="H22">
         <f ca="1" t="shared" si="2"/>
-        <v>147</v>
+        <v>509</v>
       </c>
       <c r="I22">
         <f ca="1" t="shared" si="3"/>
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
         <v>77</v>
       </c>
       <c r="L22" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>林</v>
+        <v>汝</v>
       </c>
       <c r="M22" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>世白</v>
+        <v>铄涛</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -10052,22 +10053,22 @@
       </c>
       <c r="H23">
         <f ca="1" t="shared" ref="H23:H32" si="8">RANDBETWEEN(1,564)</f>
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="I23">
         <f ca="1" t="shared" ref="I23:I32" si="9">RANDBETWEEN(1,56)</f>
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K23" t="s">
         <v>77</v>
       </c>
       <c r="L23" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>常</v>
+        <v>支</v>
       </c>
       <c r="M23" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>镜香</v>
+        <v>睿厚</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -10087,22 +10088,22 @@
       </c>
       <c r="H24">
         <f ca="1" t="shared" si="8"/>
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="I24">
         <f ca="1" t="shared" si="9"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
         <v>77</v>
       </c>
       <c r="L24" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>邹</v>
-      </c>
-      <c r="M24" s="6" t="e">
+        <v>万</v>
+      </c>
+      <c r="M24" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>春霄</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -10122,22 +10123,22 @@
       </c>
       <c r="H25">
         <f ca="1" t="shared" si="8"/>
-        <v>345</v>
+        <v>174</v>
       </c>
       <c r="I25">
         <f ca="1" t="shared" si="9"/>
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
         <v>77</v>
       </c>
       <c r="L25" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>暨</v>
+        <v>解</v>
       </c>
       <c r="M25" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>世白</v>
+        <v>铸宏</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -10157,22 +10158,22 @@
       </c>
       <c r="H26">
         <f ca="1" t="shared" si="8"/>
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="I26">
         <f ca="1" t="shared" si="9"/>
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>汪</v>
+        <v>莘</v>
       </c>
       <c r="M26" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>钟明</v>
+        <v>舒潇</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -10192,22 +10193,22 @@
       </c>
       <c r="H27">
         <f ca="1" t="shared" si="8"/>
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="I27">
         <f ca="1" t="shared" si="9"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s">
         <v>77</v>
       </c>
       <c r="L27" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>慕</v>
-      </c>
-      <c r="M27" s="6" t="e">
+        <v>段</v>
+      </c>
+      <c r="M27" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>诗文</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -10227,22 +10228,22 @@
       </c>
       <c r="H28">
         <f ca="1" t="shared" si="8"/>
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="I28">
         <f ca="1" t="shared" si="9"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
         <v>77</v>
       </c>
       <c r="L28" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>单</v>
+        <v>和</v>
       </c>
       <c r="M28" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>青峰</v>
+        <v>绪亨</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -10262,22 +10263,22 @@
       </c>
       <c r="H29">
         <f ca="1" t="shared" si="8"/>
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="I29">
         <f ca="1" t="shared" si="9"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
         <v>77</v>
       </c>
       <c r="L29" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>岑</v>
+        <v>蔚</v>
       </c>
       <c r="M29" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>斯兵</v>
+        <v>金甫</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -10297,22 +10298,22 @@
       </c>
       <c r="H30">
         <f ca="1" t="shared" si="8"/>
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="I30">
         <f ca="1" t="shared" si="9"/>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
         <v>77</v>
       </c>
       <c r="L30" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>竺</v>
+        <v>巫</v>
       </c>
       <c r="M30" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>川文</v>
+        <v>镜香</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -10332,22 +10333,22 @@
       </c>
       <c r="H31">
         <f ca="1" t="shared" si="8"/>
-        <v>104</v>
+        <v>447</v>
       </c>
       <c r="I31">
         <f ca="1" t="shared" si="9"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K31" t="s">
         <v>77</v>
       </c>
       <c r="L31" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>汪</v>
-      </c>
-      <c r="M31" s="6" t="str">
+        <v>申</v>
+      </c>
+      <c r="M31" s="6" t="e">
         <f ca="1">VLOOKUP(I31,C:D,2,FALSE)</f>
-        <v>春霄</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -10367,22 +10368,22 @@
       </c>
       <c r="H32">
         <f ca="1" t="shared" si="8"/>
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="I32">
         <f ca="1" t="shared" si="9"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K32" t="s">
         <v>77</v>
       </c>
       <c r="L32" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>蓟</v>
-      </c>
-      <c r="M32" s="6" t="str">
+        <v>屠</v>
+      </c>
+      <c r="M32" s="6" t="e">
         <f ca="1" t="shared" si="4"/>
-        <v>锶源</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -10402,22 +10403,22 @@
       </c>
       <c r="H33">
         <f ca="1" t="shared" ref="H33:H44" si="12">RANDBETWEEN(1,564)</f>
-        <v>109</v>
+        <v>491</v>
       </c>
       <c r="I33">
         <f ca="1" t="shared" ref="I33:I44" si="13">RANDBETWEEN(1,56)</f>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
         <v>77</v>
       </c>
       <c r="L33" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>米</v>
+        <v>乐</v>
       </c>
       <c r="M33" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>州涵</v>
+        <v>世白</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -10437,22 +10438,22 @@
       </c>
       <c r="H34">
         <f ca="1" t="shared" si="12"/>
-        <v>312</v>
+        <v>111</v>
       </c>
       <c r="I34">
         <f ca="1" t="shared" si="13"/>
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s">
         <v>77</v>
       </c>
       <c r="L34" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>通</v>
+        <v>明</v>
       </c>
       <c r="M34" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>千雨</v>
+        <v>成颍</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -10472,22 +10473,22 @@
       </c>
       <c r="H35">
         <f ca="1" t="shared" si="12"/>
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I35">
         <f ca="1" t="shared" si="13"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K35" t="s">
         <v>77</v>
       </c>
       <c r="L35" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>水</v>
+        <v>元</v>
       </c>
       <c r="M35" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>斯兵</v>
+        <v>峻熙</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -10507,22 +10508,22 @@
       </c>
       <c r="H36">
         <f ca="1" t="shared" si="12"/>
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="I36">
         <f ca="1" t="shared" si="13"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="K36" t="s">
         <v>77</v>
       </c>
       <c r="L36" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>屈</v>
-      </c>
-      <c r="M36" s="6" t="e">
+        <v>祖</v>
+      </c>
+      <c r="M36" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>宸清</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -10542,22 +10543,22 @@
       </c>
       <c r="H37">
         <f ca="1" t="shared" si="12"/>
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="I37">
         <f ca="1" t="shared" si="13"/>
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="K37" t="s">
         <v>77</v>
       </c>
       <c r="L37" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>尉</v>
-      </c>
-      <c r="M37" s="6" t="e">
+        <v>弘</v>
+      </c>
+      <c r="M37" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>锌涵</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -10577,22 +10578,22 @@
       </c>
       <c r="H38">
         <f ca="1" t="shared" si="12"/>
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="I38">
         <f ca="1" t="shared" si="13"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
         <v>77</v>
       </c>
       <c r="L38" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>蔚</v>
+        <v>吉</v>
       </c>
       <c r="M38" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>舒潇</v>
+        <v>承武</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -10612,22 +10613,22 @@
       </c>
       <c r="H39">
         <f ca="1" t="shared" si="12"/>
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I39">
         <f ca="1" t="shared" si="13"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="K39" t="s">
         <v>77</v>
       </c>
       <c r="L39" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>蓝</v>
+        <v>宋</v>
       </c>
       <c r="M39" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>铸宏</v>
+        <v>千雨</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -10647,22 +10648,22 @@
       </c>
       <c r="H40">
         <f ca="1" t="shared" si="12"/>
-        <v>183</v>
+        <v>498</v>
       </c>
       <c r="I40">
         <f ca="1" t="shared" si="13"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
         <v>77</v>
       </c>
       <c r="L40" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>杭</v>
+        <v>跋</v>
       </c>
       <c r="M40" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>绪亨</v>
+        <v>斯兵</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -10682,22 +10683,22 @@
       </c>
       <c r="H41">
         <f ca="1" t="shared" si="12"/>
-        <v>523</v>
+        <v>401</v>
       </c>
       <c r="I41">
         <f ca="1" t="shared" si="13"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K41" t="s">
         <v>77</v>
       </c>
       <c r="L41" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>归</v>
-      </c>
-      <c r="M41" s="6" t="str">
+        <v>游</v>
+      </c>
+      <c r="M41" s="6" t="e">
         <f ca="1" t="shared" si="4"/>
-        <v>川文</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -10717,22 +10718,22 @@
       </c>
       <c r="H42">
         <f ca="1" t="shared" si="12"/>
-        <v>27</v>
+        <v>522</v>
       </c>
       <c r="I42">
         <f ca="1" t="shared" si="13"/>
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="K42" t="s">
         <v>77</v>
       </c>
       <c r="L42" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>严</v>
-      </c>
-      <c r="M42" s="6" t="str">
+        <v>延</v>
+      </c>
+      <c r="M42" s="6" t="e">
         <f ca="1" t="shared" si="4"/>
-        <v>宗华</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -10752,22 +10753,22 @@
       </c>
       <c r="H43">
         <f ca="1" t="shared" si="12"/>
-        <v>112</v>
+        <v>352</v>
       </c>
       <c r="I43">
         <f ca="1" t="shared" si="13"/>
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s">
         <v>77</v>
       </c>
       <c r="L43" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>臧</v>
+        <v>弘</v>
       </c>
       <c r="M43" s="6" t="str">
         <f ca="1" t="shared" si="4"/>
-        <v>斯兵</v>
+        <v>昌滨</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -10787,22 +10788,22 @@
       </c>
       <c r="H44">
         <f ca="1" t="shared" si="12"/>
-        <v>405</v>
+        <v>200</v>
       </c>
       <c r="I44">
         <f ca="1" t="shared" si="13"/>
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>77</v>
       </c>
       <c r="L44" t="str">
         <f ca="1" t="shared" si="5"/>
-        <v>盖</v>
-      </c>
-      <c r="M44" s="6" t="str">
+        <v>翁</v>
+      </c>
+      <c r="M44" s="6" t="e">
         <f ca="1" t="shared" si="4"/>
-        <v>镜香</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:4">
